--- a/abu-eto-na.xlsx
+++ b/abu-eto-na.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE56D98-2B2C-430B-8726-7203E7120F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC86C79-4FB0-4358-9FA0-948F0801E6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
